--- a/urban_design/cea_excel/supply_systems.xlsx
+++ b/urban_design/cea_excel/supply_systems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="241">
   <si>
     <t>Name</t>
   </si>
@@ -582,6 +582,171 @@
   </si>
   <si>
     <t>B178</t>
+  </si>
+  <si>
+    <t>B179</t>
+  </si>
+  <si>
+    <t>B180</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>B182</t>
+  </si>
+  <si>
+    <t>B183</t>
+  </si>
+  <si>
+    <t>B184</t>
+  </si>
+  <si>
+    <t>B185</t>
+  </si>
+  <si>
+    <t>B186</t>
+  </si>
+  <si>
+    <t>B187</t>
+  </si>
+  <si>
+    <t>B188</t>
+  </si>
+  <si>
+    <t>B189</t>
+  </si>
+  <si>
+    <t>B190</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>B192</t>
+  </si>
+  <si>
+    <t>B193</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>B195</t>
+  </si>
+  <si>
+    <t>B196</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>B198</t>
+  </si>
+  <si>
+    <t>B199</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>B231</t>
+  </si>
+  <si>
+    <t>B232</t>
+  </si>
+  <si>
+    <t>B233</t>
   </si>
 </sst>
 </file>
@@ -899,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3948,6 +4113,941 @@
         <v>8</v>
       </c>
     </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
